--- a/report/ami_responses.xlsx
+++ b/report/ami_responses.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -691,16 +691,296 @@
         <v>200</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.institutabbvie.ca/Bienvenue.html</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile_nav.png</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.institutabbvie.ca/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.css</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.js</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-redirect-logout/clientlibs.min.js</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.institutabbvie.ca/content/dam/allergan-pro-ami/ca/L_AbbVie%20Institute%20RGB%20F-01-2.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://consent.trustarc.com/v2/notice/v8idiw</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.institutabbvie.ca/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://consent.trustarc.com/v2/asset/11:37:54.164v8idiw_AbbVieID-logo.png</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.institutabbvie.ca/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=v8idiw&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.institutabbvie.ca%2FBienvenue.html&amp;category=</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=v8idiw&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6989222192408637&amp;session=95c8b2ea-72c3-45d6-bb47-9c4a244ef874&amp;userType=NEW</v>
+      </c>
+      <c r="B64">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=v8idiw&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.21912041421705042&amp;session=95c8b2ea-72c3-45d6-bb47-9c4a244ef874&amp;userType=NEW</v>
+      </c>
+      <c r="B65">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.institutabbvie.ca/content/dam/allergan-pro-ami/ca/ami_home3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.institutabbvie.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/fr/Bienvenue/jcr:content</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.institutabbvie.ca/content/allergan-pro-ami/ca/fr/jcr:content/header/ca_header_area/image-extension/item_1.coreimg.png/1663736091306-L_AbbVie%20Institute%20RGB%20F-01-2.png</v>
+      </c>
+      <c r="B70">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.institutabbvie.ca/content/allergan-pro-ami/ca/fr/jcr%3acontent/header/ca_header_area/image-extension/item_1.coreimg.png/1663736100272.png</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B71"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -993,9 +1273,289 @@
         <v>200</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.abbvieinstitute.ca/Welcome.html</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.js</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile_nav.png</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.css</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.abbvieinstitute.ca/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.abbvieinstitute.ca/content/dam/allergan-pro-ami/ca/AMIColorfulLogo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.abbvieinstitute.ca/content/dam/allergan-pro-ami/ca/ami_home3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/button-redirect-logout/clientlibs.min.js</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://consent.trustarc.com/v2/notice/rqwfyo</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://consent.trustarc.com/v2/asset/11:51:11.658rqwfyo_AbbVieID-logo.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.abbvieinstitute.ca/content/allergan-pro-ami/ca/en/jcr:content/header/ca_header_area/image-extension/item_1.coreimg.png/1659941845267-AMIColorfulLogo.png</v>
+      </c>
+      <c r="B63">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.abbvieinstitute.ca/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=rqwfyo&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.9242139847605746&amp;session=99f6175d-378f-4a1f-b213-228fba045861&amp;userType=NEW</v>
+      </c>
+      <c r="B65">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=rqwfyo&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.14611231212024833&amp;session=99f6175d-378f-4a1f-b213-228fba045861&amp;userType=NEW</v>
+      </c>
+      <c r="B66">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.abbvieinstitute.ca/content/allergan-pro-ami/ca/en/jcr%3acontent/header/ca_header_area/image-extension/item_1.coreimg.png/1659952345719.png</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.abbvieinstitute.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/en/Welcome/jcr:content</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=rqwfyo&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbvieinstitute.ca%2FWelcome.html&amp;category=</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B71"/>
   </ignoredErrors>
 </worksheet>
 </file>